--- a/PuzzlORFebruary2017.xlsx
+++ b/PuzzlORFebruary2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="3240" windowWidth="25540" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,29 +234,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,6 +248,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,20 +262,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -625,161 +625,161 @@
   <dimension ref="D5:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="5" spans="4:10">
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="4:10">
-      <c r="F6" s="21">
+      <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="22">
-        <v>2</v>
-      </c>
-      <c r="H6" s="22">
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="H6" s="13">
         <v>3</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:10">
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="16">
         <v>4</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="16">
         <v>0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="10">
         <v>4</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="10">
         <f>SUM(F7:H7)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="4:10">
-      <c r="D8" s="25"/>
-      <c r="E8" s="26">
-        <v>2</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="D8" s="21"/>
+      <c r="E8" s="15">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16">
         <v>4</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="16">
         <v>3</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="16">
         <v>0</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="10">
         <v>7</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="10">
         <f t="shared" ref="J8:J9" si="0">SUM(F8:H8)</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="4:10">
-      <c r="D9" s="27"/>
-      <c r="E9" s="26">
+      <c r="D9" s="22"/>
+      <c r="E9" s="15">
         <v>3</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="16">
         <v>0</v>
       </c>
-      <c r="G9" s="28">
-        <v>2</v>
-      </c>
-      <c r="H9" s="28">
+      <c r="G9" s="16">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
         <v>7</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="10">
         <v>9</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="4:10">
-      <c r="D10" s="15"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="10">
         <v>8</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="10">
         <v>5</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="4:10">
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="10">
         <f>SUM(F7:F9)</f>
         <v>8</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="10">
         <f t="shared" ref="G11:H11" si="1">SUM(G7:G9)</f>
         <v>5</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="4:10">
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="13"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="4:10">
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="6">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
         <v>3</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="4:10">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16">
@@ -793,8 +793,8 @@
       </c>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="10"/>
-      <c r="E17" s="11">
+      <c r="D17" s="27"/>
+      <c r="E17" s="6">
         <v>2</v>
       </c>
       <c r="F17">
@@ -808,8 +808,8 @@
       </c>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="12"/>
-      <c r="E18" s="7">
+      <c r="D18" s="28"/>
+      <c r="E18" s="4">
         <v>3</v>
       </c>
       <c r="F18">
@@ -823,7 +823,7 @@
       </c>
     </row>
     <row r="22" spans="4:8">
-      <c r="E22" s="28">
+      <c r="E22" s="16">
         <f>SUMPRODUCT(F7:H9,F16:H18)</f>
         <v>29</v>
       </c>
